--- a/Stock on hand/Layouts/StockOnHand.xlsx
+++ b/Stock on hand/Layouts/StockOnHand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\AL\Fruit Project\Layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\BC-Projects\Stock on hand\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F06CF2A-B0D5-4A0E-A819-A4E534658523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1276BE-EB6C-4D6A-A6A7-F13E27B90B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,25 +18,12 @@
     <sheet name="CaptionData" sheetId="3" r:id="rId3"/>
     <sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Language</t>
   </si>
@@ -188,13 +175,34 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Location_Code</t>
   </si>
   <si>
+    <t>Unit_Cost</t>
+  </si>
+  <si>
+    <t>Cost_Amount</t>
+  </si>
+  <si>
     <t>BaseUnit</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>PreQuantity</t>
+  </si>
+  <si>
+    <t>InQuantity</t>
+  </si>
+  <si>
+    <t>PostQuantity</t>
+  </si>
+  <si>
+    <t>Stock_On_Hand</t>
   </si>
   <si>
     <t/>
@@ -204,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -219,15 +227,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Amasis MT Pro Light"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,7 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,29 +265,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Amasis MT Pro Light"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -385,123 +491,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -516,14 +505,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:E2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:E2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_No" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Quantity" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Location_Code" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BaseUnit" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:L2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+  <autoFilter ref="A1:L2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_No" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Location_Code" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Unit_Cost" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Cost_Amount" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BaseUnit" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDate" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDate" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PreQuantity" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="InQuantity" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostQuantity" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Stock_On_Hand" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,7 +549,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
@@ -564,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
@@ -575,7 +571,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
@@ -586,7 +582,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
@@ -893,55 +889,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.69921875" defaultRowHeight="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.69921875" style="2"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Stock on hand/Layouts/StockOnHand.xlsx
+++ b/Stock on hand/Layouts/StockOnHand.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <x:workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\BC-Projects\Stock on hand\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13525EBA-74AF-4DEE-8E74-3DBBBC87BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="14598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
-    <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
-    <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
-  </x:sheets>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27757651-FC92-4D05-9CC9-9C65F327CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="TranslationData" sheetId="2" r:id="rId2"/>
+    <sheet name="CaptionData" sheetId="3" r:id="rId3"/>
+    <sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
-  <si>
-    <t>TemplateColumn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Language</t>
   </si>
@@ -40,9 +50,6 @@
     <t>Caption</t>
   </si>
   <si>
-    <t>KeyValue</t>
-  </si>
-  <si>
     <t>Request Page Option</t>
   </si>
   <si>
@@ -174,222 +181,414 @@
   <si>
     <t>CaptionValue</t>
   </si>
+  <si>
+    <t>Item_No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location_Code</t>
+  </si>
+  <si>
+    <t>Unit_Cost</t>
+  </si>
+  <si>
+    <t>Cost_Amount</t>
+  </si>
+  <si>
+    <t>BaseUnit</t>
+  </si>
+  <si>
+    <t>Gen_Prod_Posting_Group</t>
+  </si>
+  <si>
+    <t>Item_Catogry</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>PreQuantity_Consumption</t>
+  </si>
+  <si>
+    <t>PreQuantity_Added</t>
+  </si>
+  <si>
+    <t>InQuantity_Consumption</t>
+  </si>
+  <si>
+    <t>InQuantity_Added</t>
+  </si>
+  <si>
+    <t>PostQuantity_Consumption</t>
+  </si>
+  <si>
+    <t>PostQuantity_Added</t>
+  </si>
+  <si>
+    <t>Stock_On_Hand</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="0"/>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="3">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC0C0C0"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="5">
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-  </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Amasis MT Pro Light"/>
+      <family val="1"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Amasis MT Pro Light"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:N2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="14">
-    <x:tableColumn id="1" name="Item_No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="Location_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="Unit_Cost" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="Cost_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="BaseUnit" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Gen_Prod_Posting_Group" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Item_Catogry" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="StartDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="EndDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="PreQuantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="InQuantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="PostQuantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="Stock_On_Hand" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="0">
+  <autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Location_Code" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Unit_Cost" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Cost_Amount" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BaseUnit" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Gen_Prod_Posting_Group" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_Catogry" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDate" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDate" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PreQuantity_Consumption" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PreQuantity_Added" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="InQuantity_Consumption" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="InQuantity_Added" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostQuantity_Consumption" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostQuantity_Added" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Stock_On_Hand" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +615,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
@@ -427,7 +626,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
@@ -438,7 +637,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
@@ -449,7 +648,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
@@ -460,7 +659,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - نسق 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -755,113 +954,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:A2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <x:cols>
-    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row>
-      <x:c r="A1" t="str">
-        <x:v>Item_No</x:v>
-      </x:c>
-      <x:c r="B1" t="str">
-        <x:v>Description</x:v>
-      </x:c>
-      <x:c r="C1" t="str">
-        <x:v>Location_Code</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>Unit_Cost</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>Cost_Amount</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>BaseUnit</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Gen_Prod_Posting_Group</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>Item_Catogry</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>StartDate</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>EndDate</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>PreQuantity</x:v>
-      </x:c>
-      <x:c r="L1" t="str">
-        <x:v>InQuantity</x:v>
-      </x:c>
-      <x:c r="M1" t="str">
-        <x:v>PostQuantity</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
-        <x:v>Stock_On_Hand</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="B2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="D2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="F2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="G2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="L2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="M2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="N2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,21 +1106,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -905,26 +1139,26 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -943,183 +1177,183 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.69140625" customWidth="1"/>
-    <col min="3" max="3" width="5.69140625" customWidth="1"/>
-    <col min="4" max="4" width="25.69140625" customWidth="1"/>
-    <col min="5" max="5" width="40.69140625" customWidth="1"/>
-    <col min="6" max="6" width="5.69140625" customWidth="1"/>
-    <col min="7" max="7" width="25.69140625" customWidth="1"/>
-    <col min="8" max="8" width="40.69140625" customWidth="1"/>
-    <col min="9" max="9" width="5.69140625" customWidth="1"/>
-    <col min="10" max="10" width="40.69140625" customWidth="1"/>
-    <col min="11" max="11" width="25.69140625" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="40.69921875" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="40.69921875" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="10" width="40.69921875" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Stock on hand/Layouts/StockOnHand.xlsx
+++ b/Stock on hand/Layouts/StockOnHand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\BC-Projects\Stock on hand\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27757651-FC92-4D05-9CC9-9C65F327CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5A90B-44F2-4AD7-B0A3-1E05670B95CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Language</t>
   </si>
@@ -188,49 +188,43 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Unit_Cost</t>
+  </si>
+  <si>
+    <t>Stock_On_Hand</t>
+  </si>
+  <si>
+    <t>Total_Cost</t>
+  </si>
+  <si>
+    <t>Quantity_Purchases</t>
+  </si>
+  <si>
+    <t>Total_Purchases</t>
+  </si>
+  <si>
+    <t>Quantity_Consumed</t>
+  </si>
+  <si>
+    <t>Total_Consumption</t>
+  </si>
+  <si>
+    <t>BaseUnit</t>
+  </si>
+  <si>
+    <t>Gen_Prod_Posting_Group</t>
+  </si>
+  <si>
+    <t>Item_Catogry</t>
+  </si>
+  <si>
     <t>Location_Code</t>
   </si>
   <si>
-    <t>Unit_Cost</t>
-  </si>
-  <si>
-    <t>Cost_Amount</t>
-  </si>
-  <si>
-    <t>BaseUnit</t>
-  </si>
-  <si>
-    <t>Gen_Prod_Posting_Group</t>
-  </si>
-  <si>
-    <t>Item_Catogry</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>EndDate</t>
-  </si>
-  <si>
-    <t>PreQuantity_Consumption</t>
-  </si>
-  <si>
-    <t>PreQuantity_Added</t>
-  </si>
-  <si>
-    <t>InQuantity_Consumption</t>
-  </si>
-  <si>
-    <t>InQuantity_Added</t>
-  </si>
-  <si>
-    <t>PostQuantity_Consumption</t>
-  </si>
-  <si>
-    <t>PostQuantity_Added</t>
-  </si>
-  <si>
-    <t>Stock_On_Hand</t>
   </si>
   <si>
     <t/>
@@ -261,7 +255,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,136 +284,26 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -447,9 +325,57 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -566,28 +492,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="0">
-  <autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_No" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Location_Code" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Unit_Cost" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Cost_Amount" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BaseUnit" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Gen_Prod_Posting_Group" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_Catogry" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDate" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDate" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PreQuantity_Consumption" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PreQuantity_Added" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="InQuantity_Consumption" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="InQuantity_Added" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostQuantity_Consumption" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostQuantity_Added" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Stock_On_Hand" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:O2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:O2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_No" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Unit_Cost" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Stock_On_Hand" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Total_Cost" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Quantity_Purchases" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Total_Purchases" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Quantity_Consumed" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Total_Consumption" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BaseUnit" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Gen_Prod_Posting_Group" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Item_Catogry" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Location_Code" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDate" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDate" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -615,7 +539,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
@@ -626,7 +550,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
@@ -637,7 +561,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
@@ -648,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
@@ -955,138 +879,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
         <v>0</v>
       </c>
     </row>
